--- a/cdc/20161120_mCompta_SchemaFonctionnel_MVP01.xlsx
+++ b/cdc/20161120_mCompta_SchemaFonctionnel_MVP01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lavarec/Desktop/cdc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\portable\Documents\persoNotes\cdc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1100" windowWidth="25360" windowHeight="16400" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="2790" yWindow="1095" windowWidth="25365" windowHeight="16395" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="webApp BtBk" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,6 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -123,7 +120,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -192,7 +189,7 @@
         <xdr:cNvPr id="3" name="ZoneTexte 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -273,7 +270,7 @@
         <xdr:cNvPr id="6" name="ZoneTexte 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -347,7 +344,7 @@
         <xdr:cNvPr id="10" name="Connecteur en angle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -408,7 +405,7 @@
         <xdr:cNvPr id="19" name="ZoneTexte 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -522,7 +519,7 @@
         <xdr:cNvPr id="27" name="ZoneTexte 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -654,7 +651,7 @@
         <xdr:cNvPr id="31" name="ZoneTexte 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -758,7 +755,7 @@
         <xdr:cNvPr id="35" name="Connecteur en angle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -820,7 +817,7 @@
         <xdr:cNvPr id="47" name="ZoneTexte 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +890,7 @@
         <xdr:cNvPr id="61" name="ZoneTexte 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -969,7 +966,7 @@
         <xdr:cNvPr id="88" name="Connecteur en angle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000058000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,7 +1026,7 @@
         <xdr:cNvPr id="78" name="ZoneTexte 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,7 +1106,7 @@
         <xdr:cNvPr id="81" name="ZoneTexte 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1222,7 @@
         <xdr:cNvPr id="237" name="Connecteur en angle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000ED000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000ED000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1284,7 @@
         <xdr:cNvPr id="36" name="ZoneTexte 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{206C09E4-5606-4EB6-B80A-BDF4C4808CF1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206C09E4-5606-4EB6-B80A-BDF4C4808CF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1396,7 @@
         <xdr:cNvPr id="75" name="Connecteur en angle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C536708-C63E-4CA6-A542-A2DD8310AD62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C536708-C63E-4CA6-A542-A2DD8310AD62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1458,7 @@
         <xdr:cNvPr id="90" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DBEAD00-1E40-47C3-BE55-97EC15967A5F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBEAD00-1E40-47C3-BE55-97EC15967A5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,7 +1520,7 @@
         <xdr:cNvPr id="109" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2642B514-0A61-48EC-8DDF-5EC3B801B0A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2642B514-0A61-48EC-8DDF-5EC3B801B0A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,7 +1582,7 @@
         <xdr:cNvPr id="121" name="ZoneTexte 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48C721BC-B3BE-4406-91CE-B3EEB275B594}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C721BC-B3BE-4406-91CE-B3EEB275B594}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1714,7 @@
         <xdr:cNvPr id="123" name="ZoneTexte 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02261B0F-398D-4C37-8ED0-4992ED411DED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02261B0F-398D-4C37-8ED0-4992ED411DED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1810,7 +1807,7 @@
         <xdr:cNvPr id="124" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCD7481F-A0DC-4BD9-B777-249542BA609F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD7481F-A0DC-4BD9-B777-249542BA609F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1869,7 @@
         <xdr:cNvPr id="127" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A7906D2-A60B-4A68-85B2-59C4E154A7EA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7906D2-A60B-4A68-85B2-59C4E154A7EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1934,7 +1931,7 @@
         <xdr:cNvPr id="130" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC6A3131-9017-4D15-AC24-A723281BE66E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6A3131-9017-4D15-AC24-A723281BE66E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1993,7 @@
         <xdr:cNvPr id="137" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{519F4BD5-823B-4DC2-BF0D-378D49E41BCA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519F4BD5-823B-4DC2-BF0D-378D49E41BCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,7 +2055,7 @@
         <xdr:cNvPr id="140" name="ZoneTexte 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53F72572-90EB-4B66-9C7B-86A6A89250D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F72572-90EB-4B66-9C7B-86A6A89250D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2148,7 @@
         <xdr:cNvPr id="141" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F4DBFF6-3CCE-46CA-8DD7-E93C06DEF64C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4DBFF6-3CCE-46CA-8DD7-E93C06DEF64C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2210,7 @@
         <xdr:cNvPr id="143" name="ZoneTexte 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6E86B31-3458-4F31-8735-ADF213E6D688}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E86B31-3458-4F31-8735-ADF213E6D688}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2303,7 @@
         <xdr:cNvPr id="144" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F578B6F7-027F-430B-AE99-2881B84AF25C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F578B6F7-027F-430B-AE99-2881B84AF25C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2365,7 @@
         <xdr:cNvPr id="33" name="ZoneTexte 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2469,7 @@
         <xdr:cNvPr id="34" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC6A3131-9017-4D15-AC24-A723281BE66E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6A3131-9017-4D15-AC24-A723281BE66E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2531,7 @@
         <xdr:cNvPr id="37" name="Connecteur en angle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2596,7 @@
         <xdr:cNvPr id="3" name="ZoneTexte 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2798,7 @@
         <xdr:cNvPr id="5" name="ZoneTexte 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE4C6410-FBBE-4013-BFAC-2D61FCBBD01F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4C6410-FBBE-4013-BFAC-2D61FCBBD01F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,21 +3201,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C2:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="G1" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="16" max="16" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:17" ht="15.95" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3237,7 +3234,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3254,7 +3251,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3271,7 +3268,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3288,7 +3285,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3305,7 +3302,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3324,7 +3321,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3341,7 +3338,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3358,7 +3355,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3375,7 +3372,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3392,7 +3389,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3409,7 +3406,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3426,7 +3423,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3443,7 +3440,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3460,7 +3457,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3477,7 +3474,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -3494,7 +3491,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3511,7 +3508,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3528,7 +3525,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -3545,7 +3542,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3562,7 +3559,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -3579,7 +3576,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -3596,7 +3593,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -3613,7 +3610,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -3630,7 +3627,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -3647,7 +3644,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -3664,7 +3661,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -3681,7 +3678,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -3698,7 +3695,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -3715,7 +3712,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -3732,7 +3729,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -3749,7 +3746,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3766,7 +3763,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -3783,7 +3780,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -3800,7 +3797,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -3817,7 +3814,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -3834,7 +3831,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -3851,7 +3848,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -3868,7 +3865,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -3885,13 +3882,13 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="N43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Gras"&amp;24schéma de fonctionnement MVP Projet mCompta</oddHeader>
     <oddFooter xml:space="preserve">&amp;C&amp;"-,Gras"SYMBIOSANTE S.A.S : MVP pour le projet mCompta&amp;"-,Normal"
@@ -3914,7 +3911,7 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/cdc/20161120_mCompta_SchemaFonctionnel_MVP01.xlsx
+++ b/cdc/20161120_mCompta_SchemaFonctionnel_MVP01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="2790" yWindow="1095" windowWidth="25365" windowHeight="16395" tabRatio="500"/>
+    <workbookView xWindow="3720" yWindow="1095" windowWidth="25365" windowHeight="16395" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="webApp BtBk" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -189,7 +189,7 @@
         <xdr:cNvPr id="3" name="ZoneTexte 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -270,7 +270,7 @@
         <xdr:cNvPr id="6" name="ZoneTexte 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -344,7 +344,7 @@
         <xdr:cNvPr id="10" name="Connecteur en angle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -405,7 +405,7 @@
         <xdr:cNvPr id="19" name="ZoneTexte 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -519,7 +519,7 @@
         <xdr:cNvPr id="27" name="ZoneTexte 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -651,7 +651,7 @@
         <xdr:cNvPr id="31" name="ZoneTexte 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -755,7 +755,7 @@
         <xdr:cNvPr id="35" name="Connecteur en angle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +817,7 @@
         <xdr:cNvPr id="47" name="ZoneTexte 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +890,7 @@
         <xdr:cNvPr id="61" name="ZoneTexte 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -966,7 +966,7 @@
         <xdr:cNvPr id="88" name="Connecteur en angle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1026,7 +1026,7 @@
         <xdr:cNvPr id="78" name="ZoneTexte 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1106,7 +1106,7 @@
         <xdr:cNvPr id="81" name="ZoneTexte 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,7 +1222,7 @@
         <xdr:cNvPr id="237" name="Connecteur en angle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000ED000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000ED000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1284,7 @@
         <xdr:cNvPr id="36" name="ZoneTexte 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206C09E4-5606-4EB6-B80A-BDF4C4808CF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{206C09E4-5606-4EB6-B80A-BDF4C4808CF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1396,7 @@
         <xdr:cNvPr id="75" name="Connecteur en angle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C536708-C63E-4CA6-A542-A2DD8310AD62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C536708-C63E-4CA6-A542-A2DD8310AD62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1458,7 @@
         <xdr:cNvPr id="90" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBEAD00-1E40-47C3-BE55-97EC15967A5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DBEAD00-1E40-47C3-BE55-97EC15967A5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1520,7 @@
         <xdr:cNvPr id="109" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2642B514-0A61-48EC-8DDF-5EC3B801B0A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2642B514-0A61-48EC-8DDF-5EC3B801B0A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1582,7 @@
         <xdr:cNvPr id="121" name="ZoneTexte 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C721BC-B3BE-4406-91CE-B3EEB275B594}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48C721BC-B3BE-4406-91CE-B3EEB275B594}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1714,7 @@
         <xdr:cNvPr id="123" name="ZoneTexte 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02261B0F-398D-4C37-8ED0-4992ED411DED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02261B0F-398D-4C37-8ED0-4992ED411DED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1807,7 @@
         <xdr:cNvPr id="124" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD7481F-A0DC-4BD9-B777-249542BA609F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCD7481F-A0DC-4BD9-B777-249542BA609F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,7 +1869,7 @@
         <xdr:cNvPr id="127" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7906D2-A60B-4A68-85B2-59C4E154A7EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A7906D2-A60B-4A68-85B2-59C4E154A7EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1931,7 @@
         <xdr:cNvPr id="130" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6A3131-9017-4D15-AC24-A723281BE66E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC6A3131-9017-4D15-AC24-A723281BE66E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +1993,7 @@
         <xdr:cNvPr id="137" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519F4BD5-823B-4DC2-BF0D-378D49E41BCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{519F4BD5-823B-4DC2-BF0D-378D49E41BCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2055,7 @@
         <xdr:cNvPr id="140" name="ZoneTexte 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F72572-90EB-4B66-9C7B-86A6A89250D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53F72572-90EB-4B66-9C7B-86A6A89250D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2148,7 @@
         <xdr:cNvPr id="141" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4DBFF6-3CCE-46CA-8DD7-E93C06DEF64C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F4DBFF6-3CCE-46CA-8DD7-E93C06DEF64C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2210,7 @@
         <xdr:cNvPr id="143" name="ZoneTexte 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E86B31-3458-4F31-8735-ADF213E6D688}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6E86B31-3458-4F31-8735-ADF213E6D688}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2303,7 @@
         <xdr:cNvPr id="144" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F578B6F7-027F-430B-AE99-2881B84AF25C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F578B6F7-027F-430B-AE99-2881B84AF25C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2365,7 @@
         <xdr:cNvPr id="33" name="ZoneTexte 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2469,7 @@
         <xdr:cNvPr id="34" name="Connecteur en angle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6A3131-9017-4D15-AC24-A723281BE66E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC6A3131-9017-4D15-AC24-A723281BE66E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,7 +2531,7 @@
         <xdr:cNvPr id="37" name="Connecteur en angle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2596,7 @@
         <xdr:cNvPr id="3" name="ZoneTexte 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2798,7 @@
         <xdr:cNvPr id="5" name="ZoneTexte 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4C6410-FBBE-4013-BFAC-2D61FCBBD01F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE4C6410-FBBE-4013-BFAC-2D61FCBBD01F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,8 +3206,8 @@
   </sheetPr>
   <dimension ref="C2:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="G1" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="D1" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3215,7 +3215,7 @@
     <col min="16" max="16" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
